--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #08  AGOSTO 2022/BALANCE  ABASTOS 11 SUR  AGOSTO 2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #08  AGOSTO 2022/BALANCE  ABASTOS 11 SUR  AGOSTO 2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rouss\Documents\GitHub\TRABAJO\01 DOCUEMENTOS\CENTRAL  ARCHIVO   2 0 2 2\CENTRAL #08  AGOSTO 2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28F0FA1A-CF03-4255-8C7F-14245063C4CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35EE907E-F1E7-48BA-953F-5194C708BB78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5475" yWindow="1890" windowWidth="13980" windowHeight="8040" xr2:uid="{FE44AC5F-CC38-4A8D-A300-DDA1E327A9FA}"/>
+    <workbookView xWindow="6120" yWindow="630" windowWidth="14025" windowHeight="9990" xr2:uid="{FE44AC5F-CC38-4A8D-A300-DDA1E327A9FA}"/>
   </bookViews>
   <sheets>
     <sheet name="   E N E R O     2  0 2 2     " sheetId="1" r:id="rId1"/>
@@ -156,7 +156,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="158">
   <si>
     <t>ELIAS &amp; PEPE</t>
   </si>
@@ -567,6 +567,69 @@
   </si>
   <si>
     <t>POLLO</t>
+  </si>
+  <si>
+    <t>VAC VICTOR M</t>
+  </si>
+  <si>
+    <t>CUMPLE Rodolfo</t>
+  </si>
+  <si>
+    <t>CHORIZO-TOSTADAS-LONGANIZA-QUESOS-CREMA-POLLO</t>
+  </si>
+  <si>
+    <t>POLLO-CHORIZO</t>
+  </si>
+  <si>
+    <t>MANTECA-POLLO-LONGANIZA-MAIZ-</t>
+  </si>
+  <si>
+    <t>ELIAS</t>
+  </si>
+  <si>
+    <t>ELIAS--PEPE</t>
+  </si>
+  <si>
+    <t>QUESOS-MOLE-LONGANIZA</t>
+  </si>
+  <si>
+    <t>NOMINA Y ELIS</t>
+  </si>
+  <si>
+    <t>QUESOS-POLLO-MAIZ-SALSA-JUGO</t>
+  </si>
+  <si>
+    <t>QUESO-TOCINETA-CHISTORRA</t>
+  </si>
+  <si>
+    <t>LONGANIZA-ENCHILADA-PAPA-POLLO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POLLO-QUESO-CREMA  </t>
+  </si>
+  <si>
+    <t>MANTECA-MAIZ-CHORIZO</t>
+  </si>
+  <si>
+    <t>POLLO-SANCHICHA-PAVO</t>
+  </si>
+  <si>
+    <t>longaniza-crema-quesos-pollo-</t>
+  </si>
+  <si>
+    <t>ELIAS-PEPE-VAC-Rodolfo</t>
+  </si>
+  <si>
+    <t>POLLO-TOSTADAS</t>
+  </si>
+  <si>
+    <t>Vacaciones AIDE</t>
+  </si>
+  <si>
+    <t>POLLO-TOCINETA-QUESO-CHISTORRA</t>
+  </si>
+  <si>
+    <t>QUESOS-CHORIZO-CARNERO-SALSAS-MOLE</t>
   </si>
 </sst>
 </file>
@@ -2169,7 +2232,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="355">
+  <cellXfs count="377">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
@@ -2766,13 +2829,218 @@
     <xf numFmtId="44" fontId="17" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="89" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="21" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="17" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="25" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="26" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="21" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="44" fontId="3" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="13" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="7" fontId="6" fillId="12" borderId="65" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="6" fillId="12" borderId="61" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="6" fillId="12" borderId="66" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="6" fillId="12" borderId="67" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="8" fillId="13" borderId="70" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="13" borderId="71" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="13" borderId="78" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="13" borderId="79" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="13" borderId="72" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="13" borderId="80" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="17" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="17" fillId="0" borderId="64" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="64" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="56" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="18" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="18" fillId="0" borderId="64" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="3" borderId="84" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="3" borderId="84" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="11" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="11" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="11" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="11" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="12" borderId="66" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="12" borderId="67" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="12" borderId="68" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="12" borderId="69" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="10" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="10" borderId="61" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="17" fillId="7" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="17" fillId="7" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="44" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="31" fillId="0" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="31" fillId="0" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2780,120 +3048,6 @@
     <xf numFmtId="44" fontId="2" fillId="3" borderId="90" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="3" borderId="84" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="3" borderId="84" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="11" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="11" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="11" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="11" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="12" borderId="66" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="12" borderId="67" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="12" borderId="68" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="12" borderId="69" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="17" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="17" fillId="0" borderId="64" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="64" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="56" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="18" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="18" fillId="0" borderId="64" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="6" fillId="12" borderId="65" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="6" fillId="12" borderId="61" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="6" fillId="12" borderId="66" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="6" fillId="12" borderId="67" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="8" fillId="13" borderId="70" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="13" borderId="71" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="13" borderId="78" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="13" borderId="79" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="13" borderId="72" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="13" borderId="80" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="17" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="17" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="17" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="44" fontId="13" fillId="0" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2913,57 +3067,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="13" fillId="11" borderId="63" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="10" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="10" borderId="61" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="17" fillId="7" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="17" fillId="7" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="44" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="31" fillId="0" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="31" fillId="0" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4415,10 +4518,10 @@
   <dimension ref="A1:AG97"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="K14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C65" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="N19" sqref="N19"/>
+      <selection pane="bottomRight" activeCell="F75" sqref="F75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4453,20 +4556,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="340" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="342" t="s">
+      <c r="B1" s="362" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="364" t="s">
         <v>112</v>
       </c>
-      <c r="D1" s="342"/>
-      <c r="E1" s="342"/>
-      <c r="F1" s="342"/>
-      <c r="G1" s="342"/>
-      <c r="H1" s="342"/>
-      <c r="I1" s="342"/>
-      <c r="J1" s="342"/>
-      <c r="K1" s="342"/>
+      <c r="D1" s="364"/>
+      <c r="E1" s="364"/>
+      <c r="F1" s="364"/>
+      <c r="G1" s="364"/>
+      <c r="H1" s="364"/>
+      <c r="I1" s="364"/>
+      <c r="J1" s="364"/>
+      <c r="K1" s="364"/>
       <c r="L1" s="1"/>
       <c r="M1" s="2"/>
       <c r="W1" s="7"/>
@@ -4476,7 +4579,7 @@
       <c r="Y1" s="9"/>
     </row>
     <row r="2" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="341"/>
+      <c r="B2" s="363"/>
       <c r="C2" s="12"/>
       <c r="H2" s="14" t="s">
         <v>2</v>
@@ -4495,27 +4598,27 @@
       <c r="Y2" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="AB2" s="343" t="s">
+      <c r="AB2" s="365" t="s">
         <v>6</v>
       </c>
-      <c r="AC2" s="343"/>
-      <c r="AD2" s="343"/>
-      <c r="AE2" s="343"/>
-      <c r="AF2" s="343"/>
-      <c r="AG2" s="343"/>
+      <c r="AC2" s="365"/>
+      <c r="AD2" s="365"/>
+      <c r="AE2" s="365"/>
+      <c r="AF2" s="365"/>
+      <c r="AG2" s="365"/>
     </row>
     <row r="3" spans="1:33" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="344" t="s">
+      <c r="B3" s="366" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="345"/>
+      <c r="C3" s="367"/>
       <c r="D3" s="20"/>
       <c r="E3" s="21"/>
       <c r="F3" s="21"/>
-      <c r="H3" s="346" t="s">
+      <c r="H3" s="368" t="s">
         <v>110</v>
       </c>
-      <c r="I3" s="346"/>
+      <c r="I3" s="368"/>
       <c r="K3" s="23" t="s">
         <v>8</v>
       </c>
@@ -4523,16 +4626,16 @@
         <v>9</v>
       </c>
       <c r="M3" s="24"/>
-      <c r="P3" s="347" t="s">
+      <c r="P3" s="369" t="s">
         <v>10</v>
       </c>
-      <c r="Q3" s="348" t="s">
+      <c r="Q3" s="370" t="s">
         <v>11</v>
       </c>
-      <c r="R3" s="276" t="s">
+      <c r="R3" s="353" t="s">
         <v>126</v>
       </c>
-      <c r="S3" s="349" t="s">
+      <c r="S3" s="371" t="s">
         <v>127</v>
       </c>
       <c r="W3" s="25" t="s">
@@ -4544,12 +4647,12 @@
       <c r="Y3" s="27">
         <v>2000</v>
       </c>
-      <c r="AB3" s="343"/>
-      <c r="AC3" s="343"/>
-      <c r="AD3" s="343"/>
-      <c r="AE3" s="343"/>
-      <c r="AF3" s="343"/>
-      <c r="AG3" s="343"/>
+      <c r="AB3" s="365"/>
+      <c r="AC3" s="365"/>
+      <c r="AD3" s="365"/>
+      <c r="AE3" s="365"/>
+      <c r="AF3" s="365"/>
+      <c r="AG3" s="365"/>
     </row>
     <row r="4" spans="1:33" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="28" t="s">
@@ -4560,14 +4663,14 @@
         <v>0</v>
       </c>
       <c r="D4" s="31"/>
-      <c r="E4" s="350" t="s">
+      <c r="E4" s="372" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="351"/>
-      <c r="H4" s="352" t="s">
+      <c r="F4" s="373"/>
+      <c r="H4" s="374" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="353"/>
+      <c r="I4" s="375"/>
       <c r="J4" s="32"/>
       <c r="K4" s="33"/>
       <c r="L4" s="34"/>
@@ -4578,10 +4681,10 @@
         <v>115</v>
       </c>
       <c r="O4" s="37"/>
-      <c r="P4" s="347"/>
-      <c r="Q4" s="348"/>
-      <c r="R4" s="277"/>
-      <c r="S4" s="349"/>
+      <c r="P4" s="369"/>
+      <c r="Q4" s="370"/>
+      <c r="R4" s="354"/>
+      <c r="S4" s="371"/>
       <c r="T4" s="38"/>
       <c r="U4" s="38"/>
       <c r="W4" s="25" t="s">
@@ -4593,16 +4696,16 @@
       <c r="Y4" s="39">
         <v>2000</v>
       </c>
-      <c r="AB4" s="325" t="s">
+      <c r="AB4" s="338" t="s">
         <v>20</v>
       </c>
-      <c r="AC4" s="326"/>
+      <c r="AC4" s="339"/>
       <c r="AD4" s="37"/>
-      <c r="AE4" s="327" t="s">
+      <c r="AE4" s="340" t="s">
         <v>21</v>
       </c>
-      <c r="AF4" s="327"/>
-      <c r="AG4" s="327"/>
+      <c r="AF4" s="340"/>
+      <c r="AG4" s="340"/>
     </row>
     <row r="5" spans="1:33" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="40" t="s">
@@ -4643,7 +4746,7 @@
       <c r="Q5" s="268">
         <v>0</v>
       </c>
-      <c r="R5" s="273">
+      <c r="R5" s="272">
         <f>C5+I5+M5+N5+L5</f>
         <v>0</v>
       </c>
@@ -4674,30 +4777,32 @@
     </row>
     <row r="6" spans="1:33" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="40"/>
-      <c r="B6" s="41">
+      <c r="B6" s="274">
         <v>44563</v>
       </c>
       <c r="C6" s="42">
         <v>3080</v>
       </c>
-      <c r="D6" s="56" t="s">
+      <c r="D6" s="275" t="s">
         <v>113</v>
       </c>
-      <c r="E6" s="44">
+      <c r="E6" s="276">
         <v>44563</v>
       </c>
       <c r="F6" s="45">
-        <f>121800+9187</f>
-        <v>130987</v>
-      </c>
-      <c r="H6" s="57">
+        <v>121800</v>
+      </c>
+      <c r="G6" s="277"/>
+      <c r="H6" s="278">
         <v>44563</v>
       </c>
-      <c r="I6" s="47"/>
+      <c r="I6" s="47">
+        <v>0</v>
+      </c>
       <c r="J6" s="58">
         <v>44563</v>
       </c>
-      <c r="K6" s="59" t="s">
+      <c r="K6" s="282" t="s">
         <v>114</v>
       </c>
       <c r="L6" s="60">
@@ -4710,8 +4815,8 @@
         <v>11906</v>
       </c>
       <c r="O6" s="49"/>
-      <c r="P6" s="50">
-        <v>0</v>
+      <c r="P6" s="281">
+        <v>9187</v>
       </c>
       <c r="Q6" s="269">
         <v>0</v>
@@ -4720,8 +4825,8 @@
         <f>C6+I6+M6+N6+L6</f>
         <v>34986</v>
       </c>
-      <c r="S6" s="5">
-        <f t="shared" ref="S6:S35" si="0">R6-F6</f>
+      <c r="S6" s="295">
+        <f>R6-F6-P6</f>
         <v>-96001</v>
       </c>
       <c r="T6" s="62"/>
@@ -4753,30 +4858,30 @@
     </row>
     <row r="7" spans="1:33" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="40"/>
-      <c r="B7" s="41">
+      <c r="B7" s="274">
         <v>44564</v>
       </c>
       <c r="C7" s="42">
         <v>12343</v>
       </c>
-      <c r="D7" s="68" t="s">
+      <c r="D7" s="283" t="s">
         <v>116</v>
       </c>
-      <c r="E7" s="44">
+      <c r="E7" s="276">
         <v>44564</v>
       </c>
       <c r="F7" s="45">
-        <f>96633+45023</f>
-        <v>141656</v>
-      </c>
-      <c r="H7" s="57">
+        <v>99315</v>
+      </c>
+      <c r="G7" s="277"/>
+      <c r="H7" s="278">
         <v>44564</v>
       </c>
       <c r="I7" s="47">
         <v>1275</v>
       </c>
       <c r="J7" s="58"/>
-      <c r="K7" s="69"/>
+      <c r="K7" s="284"/>
       <c r="L7" s="60"/>
       <c r="M7" s="264">
         <v>555</v>
@@ -4787,8 +4892,9 @@
       <c r="O7" s="49" t="s">
         <v>117</v>
       </c>
-      <c r="P7" s="50">
-        <v>0</v>
+      <c r="P7" s="281">
+        <f>39126+2660+555</f>
+        <v>42341</v>
       </c>
       <c r="Q7" s="269">
         <v>0</v>
@@ -4797,8 +4903,8 @@
         <f>C7+I7+M7+N7+L7</f>
         <v>18933</v>
       </c>
-      <c r="S7" s="5">
-        <f t="shared" si="0"/>
+      <c r="S7" s="295">
+        <f>R7-F7-P7</f>
         <v>-122723</v>
       </c>
       <c r="T7" s="70" t="s">
@@ -4832,30 +4938,30 @@
     </row>
     <row r="8" spans="1:33" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="40"/>
-      <c r="B8" s="41">
+      <c r="B8" s="274">
         <v>44565</v>
       </c>
       <c r="C8" s="42">
         <v>7999</v>
       </c>
-      <c r="D8" s="71" t="s">
+      <c r="D8" s="285" t="s">
         <v>118</v>
       </c>
-      <c r="E8" s="44">
+      <c r="E8" s="276">
         <v>44565</v>
       </c>
       <c r="F8" s="45">
-        <f>83113+8949</f>
-        <v>92062</v>
-      </c>
-      <c r="H8" s="57">
+        <v>83113</v>
+      </c>
+      <c r="G8" s="277"/>
+      <c r="H8" s="278">
         <v>44565</v>
       </c>
       <c r="I8" s="47">
         <v>2040</v>
       </c>
       <c r="J8" s="72"/>
-      <c r="K8" s="73"/>
+      <c r="K8" s="286"/>
       <c r="L8" s="60"/>
       <c r="M8" s="264">
         <v>0</v>
@@ -4864,18 +4970,18 @@
         <v>8297</v>
       </c>
       <c r="O8" s="49"/>
-      <c r="P8" s="50">
-        <v>0</v>
+      <c r="P8" s="281">
+        <v>8949</v>
       </c>
       <c r="Q8" s="269">
         <v>0</v>
       </c>
       <c r="R8" s="136">
-        <f t="shared" ref="R8" si="1">C8+I8+M8+N8+L8</f>
+        <f t="shared" ref="R8" si="0">C8+I8+M8+N8+L8</f>
         <v>18336</v>
       </c>
-      <c r="S8" s="5">
-        <f t="shared" si="0"/>
+      <c r="S8" s="295">
+        <f>R8-F8-P8</f>
         <v>-73726</v>
       </c>
       <c r="T8" s="74"/>
@@ -4907,24 +5013,25 @@
     </row>
     <row r="9" spans="1:33" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="40"/>
-      <c r="B9" s="41">
+      <c r="B9" s="274">
         <v>44566</v>
       </c>
       <c r="C9" s="42">
         <f>1320+13113</f>
         <v>14433</v>
       </c>
-      <c r="D9" s="71" t="s">
+      <c r="D9" s="285" t="s">
         <v>119</v>
       </c>
-      <c r="E9" s="44">
+      <c r="E9" s="276">
         <v>44566</v>
       </c>
       <c r="F9" s="45">
         <f>110228+1679+24553</f>
         <v>136460</v>
       </c>
-      <c r="H9" s="57">
+      <c r="G9" s="277"/>
+      <c r="H9" s="278">
         <v>44566</v>
       </c>
       <c r="I9" s="47">
@@ -4932,7 +5039,7 @@
         <v>2005</v>
       </c>
       <c r="J9" s="58"/>
-      <c r="K9" s="75"/>
+      <c r="K9" s="287"/>
       <c r="L9" s="60"/>
       <c r="M9" s="264">
         <v>1679</v>
@@ -4953,8 +5060,8 @@
         <f>C9+I9+M9+N9+L9</f>
         <v>27784</v>
       </c>
-      <c r="S9" s="5">
-        <f t="shared" si="0"/>
+      <c r="S9" s="295">
+        <f t="shared" ref="S9:S38" si="1">R9-F9-P9</f>
         <v>-108676</v>
       </c>
       <c r="T9" s="62"/>
@@ -4986,23 +5093,24 @@
     </row>
     <row r="10" spans="1:33" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="40"/>
-      <c r="B10" s="41">
+      <c r="B10" s="274">
         <v>44567</v>
       </c>
       <c r="C10" s="42">
         <v>7136</v>
       </c>
-      <c r="D10" s="68" t="s">
+      <c r="D10" s="283" t="s">
         <v>121</v>
       </c>
-      <c r="E10" s="44">
+      <c r="E10" s="276">
         <v>44567</v>
       </c>
       <c r="F10" s="45">
         <f>95983+2003</f>
         <v>97986</v>
       </c>
-      <c r="H10" s="57">
+      <c r="G10" s="277"/>
+      <c r="H10" s="278">
         <v>44567</v>
       </c>
       <c r="I10" s="47">
@@ -5012,7 +5120,7 @@
       <c r="J10" s="58">
         <v>44567</v>
       </c>
-      <c r="K10" s="76" t="s">
+      <c r="K10" s="288" t="s">
         <v>120</v>
       </c>
       <c r="L10" s="77">
@@ -5035,8 +5143,8 @@
         <f>C10+I10+M10+N10+L10</f>
         <v>20749</v>
       </c>
-      <c r="S10" s="5">
-        <f t="shared" si="0"/>
+      <c r="S10" s="295">
+        <f t="shared" si="1"/>
         <v>-77237</v>
       </c>
       <c r="T10" s="78"/>
@@ -5068,24 +5176,24 @@
     </row>
     <row r="11" spans="1:33" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="40"/>
-      <c r="B11" s="41">
+      <c r="B11" s="274">
         <v>44568</v>
       </c>
       <c r="C11" s="42">
         <f>1336+1762</f>
         <v>3098</v>
       </c>
-      <c r="D11" s="56" t="s">
+      <c r="D11" s="275" t="s">
         <v>122</v>
       </c>
-      <c r="E11" s="44">
+      <c r="E11" s="276">
         <v>44568</v>
       </c>
       <c r="F11" s="45">
-        <f>38799+152663</f>
-        <v>191462</v>
-      </c>
-      <c r="H11" s="57">
+        <v>156692</v>
+      </c>
+      <c r="G11" s="277"/>
+      <c r="H11" s="278">
         <v>44568</v>
       </c>
       <c r="I11" s="47">
@@ -5095,7 +5203,7 @@
       <c r="J11" s="72">
         <v>44568</v>
       </c>
-      <c r="K11" s="79" t="s">
+      <c r="K11" s="289" t="s">
         <v>123</v>
       </c>
       <c r="L11" s="60">
@@ -5108,8 +5216,8 @@
         <v>12752</v>
       </c>
       <c r="O11" s="49"/>
-      <c r="P11" s="50">
-        <v>0</v>
+      <c r="P11" s="281">
+        <v>34770</v>
       </c>
       <c r="Q11" s="269">
         <v>0</v>
@@ -5118,8 +5226,8 @@
         <f t="shared" ref="R11:R39" si="2">C11+I11+M11+N11+L11</f>
         <v>43569</v>
       </c>
-      <c r="S11" s="5">
-        <f>R11-F11</f>
+      <c r="S11" s="295">
+        <f t="shared" si="1"/>
         <v>-147893</v>
       </c>
       <c r="T11" s="62"/>
@@ -5151,23 +5259,24 @@
     </row>
     <row r="12" spans="1:33" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="40"/>
-      <c r="B12" s="41">
+      <c r="B12" s="274">
         <v>44569</v>
       </c>
       <c r="C12" s="42">
         <v>6112</v>
       </c>
-      <c r="D12" s="56" t="s">
+      <c r="D12" s="275" t="s">
         <v>124</v>
       </c>
-      <c r="E12" s="44">
+      <c r="E12" s="276">
         <v>44569</v>
       </c>
       <c r="F12" s="45">
         <f>143714+12247</f>
         <v>155961</v>
       </c>
-      <c r="H12" s="57">
+      <c r="G12" s="277"/>
+      <c r="H12" s="278">
         <v>44569</v>
       </c>
       <c r="I12" s="47">
@@ -5176,7 +5285,7 @@
       <c r="J12" s="58">
         <v>44569</v>
       </c>
-      <c r="K12" s="272" t="s">
+      <c r="K12" s="290" t="s">
         <v>125</v>
       </c>
       <c r="L12" s="60">
@@ -5199,8 +5308,8 @@
         <f t="shared" si="2"/>
         <v>42325</v>
       </c>
-      <c r="S12" s="5">
-        <f>R12-F12</f>
+      <c r="S12" s="295">
+        <f t="shared" si="1"/>
         <v>-113636</v>
       </c>
       <c r="T12" s="83"/>
@@ -5232,29 +5341,30 @@
     </row>
     <row r="13" spans="1:33" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="40"/>
-      <c r="B13" s="41">
+      <c r="B13" s="274">
         <v>44570</v>
       </c>
       <c r="C13" s="42">
         <v>34146</v>
       </c>
-      <c r="D13" s="71" t="s">
+      <c r="D13" s="285" t="s">
         <v>128</v>
       </c>
-      <c r="E13" s="44">
+      <c r="E13" s="276">
         <v>44570</v>
       </c>
       <c r="F13" s="45">
         <v>108856</v>
       </c>
-      <c r="H13" s="57">
+      <c r="G13" s="277"/>
+      <c r="H13" s="278">
         <v>44570</v>
       </c>
       <c r="I13" s="47">
         <v>5190</v>
       </c>
       <c r="J13" s="58"/>
-      <c r="K13" s="84"/>
+      <c r="K13" s="291"/>
       <c r="L13" s="60"/>
       <c r="M13" s="264">
         <v>0</v>
@@ -5273,8 +5383,8 @@
         <f t="shared" si="2"/>
         <v>52100</v>
       </c>
-      <c r="S13" s="5">
-        <f t="shared" si="0"/>
+      <c r="S13" s="295">
+        <f t="shared" si="1"/>
         <v>-56756</v>
       </c>
       <c r="T13" s="62"/>
@@ -5306,23 +5416,23 @@
     </row>
     <row r="14" spans="1:33" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="40"/>
-      <c r="B14" s="41">
+      <c r="B14" s="274">
         <v>44571</v>
       </c>
       <c r="C14" s="42">
         <v>13870</v>
       </c>
-      <c r="D14" s="68" t="s">
+      <c r="D14" s="283" t="s">
         <v>129</v>
       </c>
-      <c r="E14" s="44">
+      <c r="E14" s="276">
         <v>44571</v>
       </c>
       <c r="F14" s="45">
-        <f>106500+40374</f>
-        <v>146874</v>
-      </c>
-      <c r="H14" s="57">
+        <v>106500</v>
+      </c>
+      <c r="G14" s="277"/>
+      <c r="H14" s="278">
         <v>44571</v>
       </c>
       <c r="I14" s="47">
@@ -5331,7 +5441,7 @@
       <c r="J14" s="58">
         <v>44571</v>
       </c>
-      <c r="K14" s="158" t="s">
+      <c r="K14" s="292" t="s">
         <v>130</v>
       </c>
       <c r="L14" s="60">
@@ -5344,8 +5454,8 @@
         <v>25700</v>
       </c>
       <c r="O14" s="49"/>
-      <c r="P14" s="50">
-        <v>0</v>
+      <c r="P14" s="281">
+        <v>40374</v>
       </c>
       <c r="Q14" s="269">
         <v>0</v>
@@ -5354,8 +5464,8 @@
         <f t="shared" si="2"/>
         <v>40766</v>
       </c>
-      <c r="S14" s="5">
-        <f t="shared" si="0"/>
+      <c r="S14" s="295">
+        <f t="shared" si="1"/>
         <v>-106108</v>
       </c>
       <c r="T14" s="78"/>
@@ -5387,23 +5497,24 @@
     </row>
     <row r="15" spans="1:33" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="40"/>
-      <c r="B15" s="41">
+      <c r="B15" s="274">
         <v>44572</v>
       </c>
       <c r="C15" s="42">
         <v>3113</v>
       </c>
-      <c r="D15" s="56" t="s">
+      <c r="D15" s="275" t="s">
         <v>131</v>
       </c>
-      <c r="E15" s="44">
+      <c r="E15" s="276">
         <v>44572</v>
       </c>
       <c r="F15" s="45">
         <f>78705+43149</f>
         <v>121854</v>
       </c>
-      <c r="H15" s="57">
+      <c r="G15" s="277"/>
+      <c r="H15" s="278">
         <v>44572</v>
       </c>
       <c r="I15" s="47">
@@ -5412,7 +5523,7 @@
       <c r="J15" s="58">
         <v>44572</v>
       </c>
-      <c r="K15" s="73" t="s">
+      <c r="K15" s="286" t="s">
         <v>132</v>
       </c>
       <c r="L15" s="60">
@@ -5437,8 +5548,8 @@
         <f t="shared" si="2"/>
         <v>45133</v>
       </c>
-      <c r="S15" s="5">
-        <f>R15-F15-P15</f>
+      <c r="S15" s="295">
+        <f t="shared" si="1"/>
         <v>-76721</v>
       </c>
       <c r="T15" s="74"/>
@@ -5466,30 +5577,31 @@
     </row>
     <row r="16" spans="1:33" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="40"/>
-      <c r="B16" s="41">
+      <c r="B16" s="274">
         <v>44573</v>
       </c>
       <c r="C16" s="42">
         <v>20249</v>
       </c>
-      <c r="D16" s="56" t="s">
+      <c r="D16" s="275" t="s">
         <v>133</v>
       </c>
-      <c r="E16" s="44">
+      <c r="E16" s="276">
         <v>44573</v>
       </c>
       <c r="F16" s="45">
         <f>86791+12370</f>
         <v>99161</v>
       </c>
-      <c r="H16" s="57">
+      <c r="G16" s="277"/>
+      <c r="H16" s="278">
         <v>44573</v>
       </c>
       <c r="I16" s="47">
         <v>1102</v>
       </c>
       <c r="J16" s="58"/>
-      <c r="K16" s="73"/>
+      <c r="K16" s="286"/>
       <c r="L16" s="5"/>
       <c r="M16" s="264">
         <v>0</v>
@@ -5508,8 +5620,8 @@
         <f t="shared" si="2"/>
         <v>30063</v>
       </c>
-      <c r="S16" s="5">
-        <f t="shared" si="0"/>
+      <c r="S16" s="295">
+        <f t="shared" si="1"/>
         <v>-69098</v>
       </c>
       <c r="T16" s="74"/>
@@ -5541,30 +5653,31 @@
     </row>
     <row r="17" spans="1:33" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="40"/>
-      <c r="B17" s="41">
+      <c r="B17" s="274">
         <v>44574</v>
       </c>
       <c r="C17" s="42">
         <v>896</v>
       </c>
-      <c r="D17" s="71" t="s">
+      <c r="D17" s="285" t="s">
         <v>134</v>
       </c>
-      <c r="E17" s="44">
+      <c r="E17" s="276">
         <v>44574</v>
       </c>
       <c r="F17" s="45">
         <f>83879+1907+2924</f>
         <v>88710</v>
       </c>
-      <c r="H17" s="57">
+      <c r="G17" s="277"/>
+      <c r="H17" s="278">
         <v>44574</v>
       </c>
       <c r="I17" s="47">
         <v>495</v>
       </c>
       <c r="J17" s="58"/>
-      <c r="K17" s="73"/>
+      <c r="K17" s="286"/>
       <c r="L17" s="77"/>
       <c r="M17" s="264">
         <v>0</v>
@@ -5583,8 +5696,8 @@
         <f t="shared" si="2"/>
         <v>17680</v>
       </c>
-      <c r="S17" s="5">
-        <f t="shared" si="0"/>
+      <c r="S17" s="295">
+        <f t="shared" si="1"/>
         <v>-71030</v>
       </c>
       <c r="T17" s="62" t="s">
@@ -5618,23 +5731,24 @@
     </row>
     <row r="18" spans="1:33" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="40"/>
-      <c r="B18" s="41">
+      <c r="B18" s="274">
         <v>44575</v>
       </c>
       <c r="C18" s="42">
         <v>11268</v>
       </c>
-      <c r="D18" s="56" t="s">
+      <c r="D18" s="275" t="s">
         <v>135</v>
       </c>
-      <c r="E18" s="44">
+      <c r="E18" s="276">
         <v>44575</v>
       </c>
       <c r="F18" s="45">
         <f>139291+4411</f>
         <v>143702</v>
       </c>
-      <c r="H18" s="57">
+      <c r="G18" s="277"/>
+      <c r="H18" s="278">
         <v>44575</v>
       </c>
       <c r="I18" s="47">
@@ -5644,7 +5758,7 @@
       <c r="J18" s="58">
         <v>44575</v>
       </c>
-      <c r="K18" s="274" t="s">
+      <c r="K18" s="280" t="s">
         <v>123</v>
       </c>
       <c r="L18" s="60">
@@ -5670,8 +5784,8 @@
         <f t="shared" si="2"/>
         <v>83115</v>
       </c>
-      <c r="S18" s="5">
-        <f t="shared" si="0"/>
+      <c r="S18" s="295">
+        <f t="shared" si="1"/>
         <v>-60587</v>
       </c>
       <c r="T18" s="62"/>
@@ -5703,23 +5817,24 @@
     </row>
     <row r="19" spans="1:33" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="40"/>
-      <c r="B19" s="41">
+      <c r="B19" s="274">
         <v>44576</v>
       </c>
       <c r="C19" s="42">
         <v>2294</v>
       </c>
-      <c r="D19" s="56" t="s">
+      <c r="D19" s="275" t="s">
         <v>136</v>
       </c>
-      <c r="E19" s="44">
+      <c r="E19" s="276">
         <v>44576</v>
       </c>
       <c r="F19" s="45">
         <f>149872+770</f>
         <v>150642</v>
       </c>
-      <c r="H19" s="57">
+      <c r="G19" s="277"/>
+      <c r="H19" s="278">
         <v>44576</v>
       </c>
       <c r="I19" s="47">
@@ -5728,7 +5843,7 @@
       <c r="J19" s="58">
         <v>44576</v>
       </c>
-      <c r="K19" s="275" t="s">
+      <c r="K19" s="279" t="s">
         <v>125</v>
       </c>
       <c r="L19" s="88">
@@ -5751,8 +5866,8 @@
         <f t="shared" si="2"/>
         <v>52310</v>
       </c>
-      <c r="S19" s="5">
-        <f t="shared" si="0"/>
+      <c r="S19" s="295">
+        <f t="shared" si="1"/>
         <v>-98332</v>
       </c>
       <c r="T19" s="74"/>
@@ -5787,24 +5902,36 @@
       <c r="B20" s="41">
         <v>44577</v>
       </c>
-      <c r="C20" s="42"/>
-      <c r="D20" s="56"/>
+      <c r="C20" s="42">
+        <v>2319</v>
+      </c>
+      <c r="D20" s="56" t="s">
+        <v>136</v>
+      </c>
       <c r="E20" s="44">
         <v>44577</v>
       </c>
-      <c r="F20" s="45"/>
+      <c r="F20" s="45">
+        <v>124996</v>
+      </c>
       <c r="H20" s="57">
         <v>44577</v>
       </c>
-      <c r="I20" s="47"/>
+      <c r="I20" s="47">
+        <v>615</v>
+      </c>
       <c r="J20" s="58"/>
-      <c r="K20" s="89"/>
-      <c r="L20" s="77"/>
+      <c r="K20" s="89" t="s">
+        <v>137</v>
+      </c>
+      <c r="L20" s="77">
+        <v>1286</v>
+      </c>
       <c r="M20" s="264">
         <v>0</v>
       </c>
       <c r="N20" s="132">
-        <v>0</v>
+        <v>18345</v>
       </c>
       <c r="O20" s="49"/>
       <c r="P20" s="50">
@@ -5815,11 +5942,11 @@
       </c>
       <c r="R20" s="136">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S20" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>22565</v>
+      </c>
+      <c r="S20" s="295">
+        <f t="shared" si="1"/>
+        <v>-102431</v>
       </c>
       <c r="T20" s="74"/>
       <c r="W20" s="25" t="s">
@@ -5853,24 +5980,36 @@
       <c r="B21" s="41">
         <v>44578</v>
       </c>
-      <c r="C21" s="42"/>
-      <c r="D21" s="56"/>
+      <c r="C21" s="42">
+        <v>20722</v>
+      </c>
+      <c r="D21" s="56" t="s">
+        <v>139</v>
+      </c>
       <c r="E21" s="44">
         <v>44578</v>
       </c>
-      <c r="F21" s="45"/>
+      <c r="F21" s="45">
+        <v>108694</v>
+      </c>
       <c r="H21" s="57">
         <v>44578</v>
       </c>
-      <c r="I21" s="47"/>
+      <c r="I21" s="47">
+        <v>495</v>
+      </c>
       <c r="J21" s="58"/>
-      <c r="K21" s="90"/>
-      <c r="L21" s="77"/>
+      <c r="K21" s="273" t="s">
+        <v>138</v>
+      </c>
+      <c r="L21" s="77">
+        <v>500</v>
+      </c>
       <c r="M21" s="264">
         <v>0</v>
       </c>
       <c r="N21" s="132">
-        <v>0</v>
+        <v>4528</v>
       </c>
       <c r="O21" s="49"/>
       <c r="P21" s="50">
@@ -5881,11 +6020,11 @@
       </c>
       <c r="R21" s="136">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S21" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>26245</v>
+      </c>
+      <c r="S21" s="295">
+        <f t="shared" si="1"/>
+        <v>-82449</v>
       </c>
       <c r="T21" s="74"/>
       <c r="W21" s="25" t="s">
@@ -5910,21 +6049,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:33" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:33" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="40"/>
       <c r="B22" s="41">
         <v>44579</v>
       </c>
-      <c r="C22" s="42"/>
-      <c r="D22" s="68"/>
+      <c r="C22" s="42">
+        <v>3932</v>
+      </c>
+      <c r="D22" s="68" t="s">
+        <v>140</v>
+      </c>
       <c r="E22" s="44">
         <v>44579</v>
       </c>
-      <c r="F22" s="45"/>
+      <c r="F22" s="45">
+        <v>117301</v>
+      </c>
       <c r="H22" s="57">
         <v>44579</v>
       </c>
-      <c r="I22" s="47"/>
+      <c r="I22" s="47">
+        <v>940</v>
+      </c>
       <c r="J22" s="58"/>
       <c r="K22" s="91"/>
       <c r="L22" s="92"/>
@@ -5932,7 +6079,7 @@
         <v>0</v>
       </c>
       <c r="N22" s="132">
-        <v>0</v>
+        <v>10485</v>
       </c>
       <c r="O22" s="49"/>
       <c r="P22" s="50">
@@ -5943,11 +6090,11 @@
       </c>
       <c r="R22" s="136">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S22" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15357</v>
+      </c>
+      <c r="S22" s="295">
+        <f t="shared" si="1"/>
+        <v>-101944</v>
       </c>
       <c r="T22" s="74"/>
       <c r="W22" s="25" t="s">
@@ -5977,24 +6124,38 @@
       <c r="B23" s="41">
         <v>44580</v>
       </c>
-      <c r="C23" s="42"/>
-      <c r="D23" s="68"/>
+      <c r="C23" s="42">
+        <v>13091</v>
+      </c>
+      <c r="D23" s="68" t="s">
+        <v>141</v>
+      </c>
       <c r="E23" s="44">
         <v>44580</v>
       </c>
-      <c r="F23" s="45"/>
+      <c r="F23" s="45">
+        <v>99938</v>
+      </c>
       <c r="H23" s="57">
         <v>44580</v>
       </c>
-      <c r="I23" s="47"/>
-      <c r="J23" s="96"/>
-      <c r="K23" s="97"/>
-      <c r="L23" s="77"/>
+      <c r="I23" s="47">
+        <v>954</v>
+      </c>
+      <c r="J23" s="96">
+        <v>44580</v>
+      </c>
+      <c r="K23" s="97" t="s">
+        <v>30</v>
+      </c>
+      <c r="L23" s="77">
+        <v>3512</v>
+      </c>
       <c r="M23" s="264">
         <v>0</v>
       </c>
       <c r="N23" s="132">
-        <v>0</v>
+        <v>8464</v>
       </c>
       <c r="O23" s="49"/>
       <c r="P23" s="50">
@@ -6005,11 +6166,11 @@
       </c>
       <c r="R23" s="136">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S23" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>26021</v>
+      </c>
+      <c r="S23" s="295">
+        <f t="shared" si="1"/>
+        <v>-73917</v>
       </c>
       <c r="T23" s="78"/>
       <c r="W23" s="25" t="s">
@@ -6028,10 +6189,10 @@
         <v>0</v>
       </c>
       <c r="AD23" s="37"/>
-      <c r="AE23" s="328" t="s">
+      <c r="AE23" s="341" t="s">
         <v>45</v>
       </c>
-      <c r="AF23" s="329"/>
+      <c r="AF23" s="342"/>
       <c r="AG23" s="98">
         <f>SUM(AG6:AG22)</f>
         <v>2323600</v>
@@ -6042,26 +6203,40 @@
       <c r="B24" s="41">
         <v>44581</v>
       </c>
-      <c r="C24" s="42"/>
-      <c r="D24" s="56"/>
+      <c r="C24" s="42">
+        <v>3220</v>
+      </c>
+      <c r="D24" s="56" t="s">
+        <v>136</v>
+      </c>
       <c r="E24" s="44">
         <v>44581</v>
       </c>
-      <c r="F24" s="45"/>
+      <c r="F24" s="45">
+        <v>97684</v>
+      </c>
       <c r="H24" s="57">
         <v>44581</v>
       </c>
-      <c r="I24" s="47"/>
+      <c r="I24" s="47">
+        <v>7056</v>
+      </c>
       <c r="J24" s="99"/>
-      <c r="K24" s="100"/>
-      <c r="L24" s="101"/>
+      <c r="K24" s="100" t="s">
+        <v>142</v>
+      </c>
+      <c r="L24" s="101">
+        <v>6115</v>
+      </c>
       <c r="M24" s="264">
-        <v>0</v>
+        <v>1204</v>
       </c>
       <c r="N24" s="132">
-        <v>0</v>
-      </c>
-      <c r="O24" s="49"/>
+        <v>11153</v>
+      </c>
+      <c r="O24" s="49" t="s">
+        <v>38</v>
+      </c>
       <c r="P24" s="50">
         <v>0</v>
       </c>
@@ -6070,11 +6245,11 @@
       </c>
       <c r="R24" s="136">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S24" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>28748</v>
+      </c>
+      <c r="S24" s="295">
+        <f t="shared" si="1"/>
+        <v>-68936</v>
       </c>
       <c r="T24" s="62"/>
       <c r="W24" s="25" t="s">
@@ -6098,24 +6273,36 @@
       <c r="B25" s="41">
         <v>44582</v>
       </c>
-      <c r="C25" s="42"/>
-      <c r="D25" s="56"/>
+      <c r="C25" s="42">
+        <v>11723</v>
+      </c>
+      <c r="D25" s="56" t="s">
+        <v>144</v>
+      </c>
       <c r="E25" s="44">
         <v>44582</v>
       </c>
-      <c r="F25" s="45"/>
+      <c r="F25" s="45">
+        <v>166098</v>
+      </c>
       <c r="H25" s="57">
         <v>44582</v>
       </c>
-      <c r="I25" s="47"/>
+      <c r="I25" s="47">
+        <v>1934</v>
+      </c>
       <c r="J25" s="104"/>
-      <c r="K25" s="105"/>
-      <c r="L25" s="106"/>
+      <c r="K25" s="105" t="s">
+        <v>143</v>
+      </c>
+      <c r="L25" s="106">
+        <v>16500</v>
+      </c>
       <c r="M25" s="264">
         <v>0</v>
       </c>
       <c r="N25" s="132">
-        <v>0</v>
+        <v>28469</v>
       </c>
       <c r="O25" s="49"/>
       <c r="P25" s="50">
@@ -6126,11 +6313,11 @@
       </c>
       <c r="R25" s="136">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S25" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>58626</v>
+      </c>
+      <c r="S25" s="295">
+        <f t="shared" si="1"/>
+        <v>-107472</v>
       </c>
       <c r="T25" s="62"/>
       <c r="W25" s="25" t="s">
@@ -6149,11 +6336,11 @@
         <v>138607</v>
       </c>
       <c r="AD25" s="37"/>
-      <c r="AE25" s="330" t="s">
+      <c r="AE25" s="343" t="s">
         <v>48</v>
       </c>
-      <c r="AF25" s="331"/>
-      <c r="AG25" s="334">
+      <c r="AF25" s="344"/>
+      <c r="AG25" s="347">
         <f>AC29-AG23</f>
         <v>163726</v>
       </c>
@@ -6163,24 +6350,38 @@
       <c r="B26" s="41">
         <v>44583</v>
       </c>
-      <c r="C26" s="42"/>
-      <c r="D26" s="56"/>
+      <c r="C26" s="42">
+        <v>9466</v>
+      </c>
+      <c r="D26" s="56" t="s">
+        <v>146</v>
+      </c>
       <c r="E26" s="44">
         <v>44583</v>
       </c>
-      <c r="F26" s="45"/>
+      <c r="F26" s="45">
+        <v>178587</v>
+      </c>
       <c r="H26" s="57">
         <v>44583</v>
       </c>
-      <c r="I26" s="47"/>
-      <c r="J26" s="58"/>
-      <c r="K26" s="100"/>
-      <c r="L26" s="77"/>
+      <c r="I26" s="47">
+        <v>400</v>
+      </c>
+      <c r="J26" s="58">
+        <v>44583</v>
+      </c>
+      <c r="K26" s="100" t="s">
+        <v>145</v>
+      </c>
+      <c r="L26" s="77">
+        <v>23573</v>
+      </c>
       <c r="M26" s="264">
         <v>0</v>
       </c>
       <c r="N26" s="132">
-        <v>0</v>
+        <v>51995</v>
       </c>
       <c r="O26" s="49"/>
       <c r="P26" s="50">
@@ -6191,11 +6392,11 @@
       </c>
       <c r="R26" s="136">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S26" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>85434</v>
+      </c>
+      <c r="S26" s="295">
+        <f t="shared" si="1"/>
+        <v>-93153</v>
       </c>
       <c r="T26" s="62"/>
       <c r="W26" s="25" t="s">
@@ -6214,25 +6415,33 @@
         <v>107480</v>
       </c>
       <c r="AD26" s="37"/>
-      <c r="AE26" s="332"/>
-      <c r="AF26" s="333"/>
-      <c r="AG26" s="335"/>
+      <c r="AE26" s="345"/>
+      <c r="AF26" s="346"/>
+      <c r="AG26" s="348"/>
     </row>
     <row r="27" spans="1:33" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="40"/>
       <c r="B27" s="41">
         <v>44584</v>
       </c>
-      <c r="C27" s="42"/>
-      <c r="D27" s="71"/>
+      <c r="C27" s="42">
+        <v>17474</v>
+      </c>
+      <c r="D27" s="71" t="s">
+        <v>147</v>
+      </c>
       <c r="E27" s="44">
         <v>44584</v>
       </c>
-      <c r="F27" s="45"/>
+      <c r="F27" s="45">
+        <v>120877</v>
+      </c>
       <c r="H27" s="57">
         <v>44584</v>
       </c>
-      <c r="I27" s="47"/>
+      <c r="I27" s="47">
+        <v>600</v>
+      </c>
       <c r="J27" s="107"/>
       <c r="K27" s="105"/>
       <c r="L27" s="106"/>
@@ -6240,7 +6449,7 @@
         <v>0</v>
       </c>
       <c r="N27" s="132">
-        <v>0</v>
+        <v>24302</v>
       </c>
       <c r="O27" s="49"/>
       <c r="P27" s="50">
@@ -6251,11 +6460,11 @@
       </c>
       <c r="R27" s="136">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S27" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>42376</v>
+      </c>
+      <c r="S27" s="295">
+        <f t="shared" si="1"/>
+        <v>-78501</v>
       </c>
       <c r="T27" s="62"/>
       <c r="W27" s="25" t="s">
@@ -6283,16 +6492,24 @@
       <c r="B28" s="41">
         <v>44585</v>
       </c>
-      <c r="C28" s="42"/>
-      <c r="D28" s="71"/>
+      <c r="C28" s="42">
+        <v>15817</v>
+      </c>
+      <c r="D28" s="71" t="s">
+        <v>148</v>
+      </c>
       <c r="E28" s="44">
         <v>44585</v>
       </c>
-      <c r="F28" s="45"/>
+      <c r="F28" s="45">
+        <v>92975</v>
+      </c>
       <c r="H28" s="57">
         <v>44585</v>
       </c>
-      <c r="I28" s="47"/>
+      <c r="I28" s="47">
+        <v>440</v>
+      </c>
       <c r="J28" s="66"/>
       <c r="K28" s="59"/>
       <c r="L28" s="106"/>
@@ -6300,7 +6517,7 @@
         <v>0</v>
       </c>
       <c r="N28" s="132">
-        <v>0</v>
+        <v>5728</v>
       </c>
       <c r="O28" s="49"/>
       <c r="P28" s="50">
@@ -6311,11 +6528,11 @@
       </c>
       <c r="R28" s="136">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S28" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>21985</v>
+      </c>
+      <c r="S28" s="295">
+        <f t="shared" si="1"/>
+        <v>-70990</v>
       </c>
       <c r="T28" s="62"/>
       <c r="W28" s="25" t="s">
@@ -6339,16 +6556,24 @@
       <c r="B29" s="41">
         <v>44586</v>
       </c>
-      <c r="C29" s="42"/>
-      <c r="D29" s="110"/>
+      <c r="C29" s="42">
+        <v>7502</v>
+      </c>
+      <c r="D29" s="110" t="s">
+        <v>149</v>
+      </c>
       <c r="E29" s="44">
         <v>44586</v>
       </c>
-      <c r="F29" s="45"/>
+      <c r="F29" s="45">
+        <v>105084</v>
+      </c>
       <c r="H29" s="57">
         <v>44586</v>
       </c>
-      <c r="I29" s="47"/>
+      <c r="I29" s="47">
+        <v>1065</v>
+      </c>
       <c r="J29" s="111"/>
       <c r="K29" s="112"/>
       <c r="L29" s="106"/>
@@ -6356,7 +6581,7 @@
         <v>0</v>
       </c>
       <c r="N29" s="132">
-        <v>0</v>
+        <v>23864</v>
       </c>
       <c r="O29" s="49"/>
       <c r="P29" s="50">
@@ -6367,11 +6592,11 @@
       </c>
       <c r="R29" s="136">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S29" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>32431</v>
+      </c>
+      <c r="S29" s="295">
+        <f t="shared" si="1"/>
+        <v>-72653</v>
       </c>
       <c r="T29" s="74"/>
       <c r="W29" s="25" t="s">
@@ -6379,10 +6604,10 @@
       </c>
       <c r="X29" s="52"/>
       <c r="Y29" s="53"/>
-      <c r="AB29" s="336" t="s">
+      <c r="AB29" s="349" t="s">
         <v>53</v>
       </c>
-      <c r="AC29" s="338">
+      <c r="AC29" s="351">
         <f>SUM(AC5:AC28)</f>
         <v>2487326</v>
       </c>
@@ -6396,24 +6621,38 @@
       <c r="B30" s="41">
         <v>44587</v>
       </c>
-      <c r="C30" s="42"/>
-      <c r="D30" s="110"/>
+      <c r="C30" s="42">
+        <v>5252</v>
+      </c>
+      <c r="D30" s="110" t="s">
+        <v>150</v>
+      </c>
       <c r="E30" s="44">
         <v>44587</v>
       </c>
-      <c r="F30" s="45"/>
+      <c r="F30" s="45">
+        <v>102670</v>
+      </c>
       <c r="H30" s="57">
         <v>44587</v>
       </c>
-      <c r="I30" s="47"/>
-      <c r="J30" s="114"/>
-      <c r="K30" s="115"/>
-      <c r="L30" s="116"/>
+      <c r="I30" s="47">
+        <v>5211</v>
+      </c>
+      <c r="J30" s="66">
+        <v>44587</v>
+      </c>
+      <c r="K30" s="73" t="s">
+        <v>1</v>
+      </c>
+      <c r="L30" s="60">
+        <v>4000</v>
+      </c>
       <c r="M30" s="264">
-        <v>0</v>
+        <v>3004</v>
       </c>
       <c r="N30" s="132">
-        <v>0</v>
+        <v>19072</v>
       </c>
       <c r="O30" s="49"/>
       <c r="P30" s="50">
@@ -6424,11 +6663,11 @@
       </c>
       <c r="R30" s="136">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S30" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>36539</v>
+      </c>
+      <c r="S30" s="295">
+        <f t="shared" si="1"/>
+        <v>-66131</v>
       </c>
       <c r="T30" s="62"/>
       <c r="W30" s="25" t="s">
@@ -6436,8 +6675,8 @@
       </c>
       <c r="X30" s="117"/>
       <c r="Y30" s="118"/>
-      <c r="AB30" s="337"/>
-      <c r="AC30" s="339"/>
+      <c r="AB30" s="350"/>
+      <c r="AC30" s="352"/>
       <c r="AD30" s="37"/>
       <c r="AE30" s="37"/>
       <c r="AF30" s="37"/>
@@ -6448,28 +6687,35 @@
       <c r="B31" s="41">
         <v>44588</v>
       </c>
-      <c r="C31" s="42"/>
-      <c r="D31" s="119"/>
+      <c r="C31" s="42">
+        <v>6261</v>
+      </c>
+      <c r="D31" s="119" t="s">
+        <v>151</v>
+      </c>
       <c r="E31" s="44">
         <v>44588</v>
       </c>
-      <c r="F31" s="45"/>
+      <c r="F31" s="45">
+        <v>120138</v>
+      </c>
       <c r="H31" s="57">
         <v>44588</v>
       </c>
-      <c r="I31" s="47"/>
-      <c r="J31" s="114"/>
-      <c r="K31" s="120"/>
-      <c r="L31" s="121"/>
+      <c r="I31" s="47">
+        <v>495</v>
+      </c>
+      <c r="J31" s="66"/>
+      <c r="K31" s="105"/>
+      <c r="L31" s="106"/>
       <c r="M31" s="264">
         <v>0</v>
       </c>
       <c r="N31" s="132">
-        <v>0</v>
+        <v>32909</v>
       </c>
       <c r="O31" s="49"/>
-      <c r="P31" s="122">
-        <f>SUM(P5:P30)</f>
+      <c r="P31" s="50">
         <v>0</v>
       </c>
       <c r="Q31" s="269">
@@ -6477,11 +6723,11 @@
       </c>
       <c r="R31" s="136">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S31" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>39665</v>
+      </c>
+      <c r="S31" s="295">
+        <f t="shared" si="1"/>
+        <v>-80473</v>
       </c>
       <c r="T31" s="62"/>
       <c r="W31" s="25" t="s">
@@ -6501,39 +6747,53 @@
       <c r="B32" s="41">
         <v>44589</v>
       </c>
-      <c r="C32" s="42"/>
-      <c r="D32" s="123"/>
+      <c r="C32" s="42">
+        <v>20169</v>
+      </c>
+      <c r="D32" s="123" t="s">
+        <v>152</v>
+      </c>
       <c r="E32" s="44">
         <v>44589</v>
       </c>
-      <c r="F32" s="45"/>
+      <c r="F32" s="45">
+        <v>159386</v>
+      </c>
       <c r="H32" s="57">
         <v>44589</v>
       </c>
-      <c r="I32" s="47"/>
-      <c r="J32" s="114"/>
-      <c r="K32" s="69"/>
-      <c r="L32" s="116"/>
+      <c r="I32" s="47">
+        <v>671</v>
+      </c>
+      <c r="J32" s="66">
+        <v>44589</v>
+      </c>
+      <c r="K32" s="84" t="s">
+        <v>153</v>
+      </c>
+      <c r="L32" s="60">
+        <v>22000</v>
+      </c>
       <c r="M32" s="264">
         <v>0</v>
       </c>
       <c r="N32" s="132">
-        <v>0</v>
+        <v>30789</v>
       </c>
       <c r="O32" s="49"/>
-      <c r="P32" s="6" t="s">
-        <v>18</v>
+      <c r="P32" s="50">
+        <v>0</v>
       </c>
       <c r="Q32" s="269">
         <v>0</v>
       </c>
       <c r="R32" s="136">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S32" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>73629</v>
+      </c>
+      <c r="S32" s="295">
+        <f t="shared" si="1"/>
+        <v>-85757</v>
       </c>
       <c r="T32" s="62" t="s">
         <v>56</v>
@@ -6553,37 +6813,53 @@
       <c r="B33" s="41">
         <v>44590</v>
       </c>
-      <c r="C33" s="42"/>
-      <c r="D33" s="119"/>
+      <c r="C33" s="42">
+        <v>4951</v>
+      </c>
+      <c r="D33" s="119" t="s">
+        <v>154</v>
+      </c>
       <c r="E33" s="44">
         <v>44590</v>
       </c>
-      <c r="F33" s="45"/>
+      <c r="F33" s="45">
+        <v>148878</v>
+      </c>
       <c r="H33" s="57">
         <v>44590</v>
       </c>
-      <c r="I33" s="47"/>
-      <c r="J33" s="114"/>
-      <c r="K33" s="120"/>
-      <c r="L33" s="124"/>
+      <c r="I33" s="47">
+        <v>1711</v>
+      </c>
+      <c r="J33" s="66">
+        <v>44590</v>
+      </c>
+      <c r="K33" s="105" t="s">
+        <v>125</v>
+      </c>
+      <c r="L33" s="131">
+        <v>22387</v>
+      </c>
       <c r="M33" s="264">
         <v>0</v>
       </c>
       <c r="N33" s="132">
-        <v>0</v>
+        <v>27993</v>
       </c>
       <c r="O33" s="125"/>
-      <c r="P33" s="6"/>
+      <c r="P33" s="50">
+        <v>0</v>
+      </c>
       <c r="Q33" s="269">
         <v>0</v>
       </c>
       <c r="R33" s="136">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S33" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>57042</v>
+      </c>
+      <c r="S33" s="295">
+        <f t="shared" si="1"/>
+        <v>-91836</v>
       </c>
       <c r="T33" s="62"/>
       <c r="W33" s="25" t="s">
@@ -6600,41 +6876,56 @@
         <v>10815.4</v>
       </c>
     </row>
-    <row r="34" spans="1:33" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:33" ht="33" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="40"/>
       <c r="B34" s="41">
         <v>44591</v>
       </c>
-      <c r="C34" s="42"/>
-      <c r="D34" s="123"/>
+      <c r="C34" s="42">
+        <v>22630</v>
+      </c>
+      <c r="D34" s="294" t="s">
+        <v>156</v>
+      </c>
       <c r="E34" s="44">
         <v>44591</v>
       </c>
-      <c r="F34" s="45"/>
+      <c r="F34" s="45">
+        <v>120018</v>
+      </c>
       <c r="H34" s="57">
         <v>44591</v>
       </c>
-      <c r="I34" s="47"/>
+      <c r="I34" s="47">
+        <v>1147</v>
+      </c>
       <c r="J34" s="66"/>
-      <c r="K34" s="128"/>
-      <c r="L34" s="5"/>
+      <c r="K34" s="293" t="s">
+        <v>155</v>
+      </c>
+      <c r="L34" s="4">
+        <v>2386</v>
+      </c>
       <c r="M34" s="264">
         <v>0</v>
       </c>
       <c r="N34" s="132">
-        <v>0</v>
+        <v>9624</v>
       </c>
       <c r="O34" s="125"/>
-      <c r="P34" s="6"/>
+      <c r="P34" s="50">
+        <v>0</v>
+      </c>
       <c r="Q34" s="269">
         <v>0</v>
       </c>
       <c r="R34" s="136">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S34" s="5" t="s">
-        <v>18</v>
+        <v>35787</v>
+      </c>
+      <c r="S34" s="295">
+        <f t="shared" si="1"/>
+        <v>-84231</v>
       </c>
       <c r="T34" s="62"/>
       <c r="W34" s="25" t="s">
@@ -6656,16 +6947,24 @@
       <c r="B35" s="41">
         <v>44592</v>
       </c>
-      <c r="C35" s="42"/>
-      <c r="D35" s="130"/>
+      <c r="C35" s="42">
+        <v>11782</v>
+      </c>
+      <c r="D35" s="130" t="s">
+        <v>157</v>
+      </c>
       <c r="E35" s="44">
         <v>44592</v>
       </c>
-      <c r="F35" s="45"/>
+      <c r="F35" s="45">
+        <v>86578</v>
+      </c>
       <c r="H35" s="57">
         <v>44592</v>
       </c>
-      <c r="I35" s="47"/>
+      <c r="I35" s="47">
+        <v>565</v>
+      </c>
       <c r="J35" s="66"/>
       <c r="K35" s="105"/>
       <c r="L35" s="131"/>
@@ -6673,20 +6972,22 @@
         <v>0</v>
       </c>
       <c r="N35" s="132">
-        <v>0</v>
+        <v>4992</v>
       </c>
       <c r="O35" s="125"/>
-      <c r="P35" s="6"/>
+      <c r="P35" s="50">
+        <v>0</v>
+      </c>
       <c r="Q35" s="269">
         <v>0</v>
       </c>
       <c r="R35" s="136">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S35" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>17339</v>
+      </c>
+      <c r="S35" s="295">
+        <f t="shared" si="1"/>
+        <v>-69239</v>
       </c>
       <c r="T35" s="62"/>
       <c r="W35" s="25" t="s">
@@ -6718,7 +7019,9 @@
         <v>0</v>
       </c>
       <c r="O36" s="125"/>
-      <c r="P36" s="6"/>
+      <c r="P36" s="50">
+        <v>0</v>
+      </c>
       <c r="Q36" s="269">
         <v>0</v>
       </c>
@@ -6727,6 +7030,7 @@
         <v>0</v>
       </c>
       <c r="S36" s="5">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T36" s="62"/>
@@ -6759,7 +7063,10 @@
         <v>0</v>
       </c>
       <c r="O37" s="125"/>
-      <c r="P37" s="6"/>
+      <c r="P37" s="296">
+        <f>SUM(P5:P36)</f>
+        <v>135621</v>
+      </c>
       <c r="Q37" s="270"/>
       <c r="R37" s="136">
         <f t="shared" si="2"/>
@@ -6816,6 +7123,7 @@
         <v>0</v>
       </c>
       <c r="S38" s="5">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T38" s="62"/>
@@ -6849,20 +7157,24 @@
       <c r="J39" s="66"/>
       <c r="K39" s="141"/>
       <c r="L39" s="60"/>
-      <c r="M39" s="316">
+      <c r="M39" s="355">
         <f>SUM(M5:M38)</f>
-        <v>27409</v>
-      </c>
-      <c r="N39" s="318">
+        <v>31617</v>
+      </c>
+      <c r="N39" s="357">
         <f>SUM(N5:N38)</f>
-        <v>221282</v>
+        <v>533994</v>
       </c>
       <c r="O39" s="125"/>
       <c r="P39" s="6"/>
       <c r="Q39" s="6"/>
-      <c r="R39" s="136">
+      <c r="R39" s="297">
         <f t="shared" si="2"/>
-        <v>248691</v>
+        <v>565611</v>
+      </c>
+      <c r="S39" s="4">
+        <f>SUM(S5:S38)</f>
+        <v>-2608637</v>
       </c>
       <c r="T39" s="62"/>
       <c r="W39" s="25" t="s">
@@ -6891,8 +7203,8 @@
       <c r="J40" s="66"/>
       <c r="K40" s="105"/>
       <c r="L40" s="60"/>
-      <c r="M40" s="317"/>
-      <c r="N40" s="319"/>
+      <c r="M40" s="356"/>
+      <c r="N40" s="358"/>
       <c r="O40" s="125"/>
       <c r="P40" s="6"/>
       <c r="Q40" s="6"/>
@@ -7032,10 +7344,10 @@
       <c r="J44" s="66"/>
       <c r="K44" s="148"/>
       <c r="L44" s="131"/>
-      <c r="M44" s="320" t="s">
+      <c r="M44" s="359" t="s">
         <v>21</v>
       </c>
-      <c r="N44" s="320"/>
+      <c r="N44" s="359"/>
       <c r="O44" s="125"/>
       <c r="P44" s="6"/>
       <c r="Q44" s="6"/>
@@ -7485,7 +7797,7 @@
       <c r="J58" s="170"/>
       <c r="K58" s="173"/>
       <c r="L58" s="70"/>
-      <c r="M58" s="321">
+      <c r="M58" s="360">
         <f t="shared" ref="M58" si="3">SUM(M45:M57)</f>
         <v>0</v>
       </c>
@@ -7518,7 +7830,7 @@
       <c r="J59" s="170"/>
       <c r="K59" s="135"/>
       <c r="L59" s="70"/>
-      <c r="M59" s="322"/>
+      <c r="M59" s="361"/>
       <c r="N59" s="132"/>
       <c r="O59" s="125"/>
       <c r="P59" s="6"/>
@@ -7548,10 +7860,10 @@
       <c r="J60" s="170"/>
       <c r="K60" s="173"/>
       <c r="L60" s="70"/>
-      <c r="M60" s="323" t="s">
+      <c r="M60" s="336" t="s">
         <v>87</v>
       </c>
-      <c r="N60" s="324"/>
+      <c r="N60" s="337"/>
       <c r="O60" s="125"/>
       <c r="P60" s="6"/>
       <c r="Q60" s="6"/>
@@ -7610,10 +7922,10 @@
       <c r="J62" s="176"/>
       <c r="K62" s="177"/>
       <c r="L62" s="178"/>
-      <c r="M62" s="287">
-        <v>0</v>
-      </c>
-      <c r="N62" s="288"/>
+      <c r="M62" s="332">
+        <v>0</v>
+      </c>
+      <c r="N62" s="333"/>
       <c r="O62" s="125"/>
       <c r="P62" s="6"/>
       <c r="Q62" s="6"/>
@@ -7644,8 +7956,8 @@
       <c r="L63" s="70" t="s">
         <v>88</v>
       </c>
-      <c r="M63" s="289"/>
-      <c r="N63" s="290"/>
+      <c r="M63" s="334"/>
+      <c r="N63" s="335"/>
       <c r="O63" s="125"/>
       <c r="P63" s="6"/>
       <c r="Q63" s="6"/>
@@ -7676,10 +7988,10 @@
       <c r="L64" s="179" t="s">
         <v>89</v>
       </c>
-      <c r="M64" s="302">
-        <v>0</v>
-      </c>
-      <c r="N64" s="303"/>
+      <c r="M64" s="298">
+        <v>0</v>
+      </c>
+      <c r="N64" s="299"/>
       <c r="O64" s="125"/>
       <c r="P64" s="6"/>
       <c r="Q64" s="6"/>
@@ -7710,10 +8022,10 @@
       <c r="L65" s="179" t="s">
         <v>90</v>
       </c>
-      <c r="M65" s="304">
-        <v>0</v>
-      </c>
-      <c r="N65" s="305"/>
+      <c r="M65" s="300">
+        <v>0</v>
+      </c>
+      <c r="N65" s="301"/>
       <c r="O65" s="125"/>
       <c r="P65" s="6"/>
       <c r="Q65" s="6"/>
@@ -7744,12 +8056,12 @@
       <c r="J66" s="176"/>
       <c r="K66" s="173"/>
       <c r="L66" s="5"/>
-      <c r="M66" s="306">
+      <c r="M66" s="302">
         <f>SUM(M65+M64+M62)</f>
         <v>0</v>
       </c>
-      <c r="N66" s="307"/>
-      <c r="O66" s="310"/>
+      <c r="N66" s="303"/>
+      <c r="O66" s="306"/>
       <c r="P66" s="6"/>
       <c r="Q66" s="6"/>
       <c r="R66" s="181">
@@ -7775,7 +8087,7 @@
       </c>
       <c r="C67" s="184">
         <f>SUM(C5:C66)</f>
-        <v>140037</v>
+        <v>316348</v>
       </c>
       <c r="D67" s="185"/>
       <c r="E67" s="186" t="s">
@@ -7783,7 +8095,7 @@
       </c>
       <c r="F67" s="187">
         <f>SUM(F5:F66)</f>
-        <v>1806373</v>
+        <v>3620654</v>
       </c>
       <c r="G67" s="185"/>
       <c r="H67" s="188" t="s">
@@ -7791,7 +8103,7 @@
       </c>
       <c r="I67" s="189">
         <f>SUM(I5:I66)</f>
-        <v>31879</v>
+        <v>56178</v>
       </c>
       <c r="J67" s="190"/>
       <c r="K67" s="191" t="s">
@@ -7799,20 +8111,20 @@
       </c>
       <c r="L67" s="192">
         <f>SUM(L5:L66)</f>
-        <v>107242</v>
-      </c>
-      <c r="M67" s="308"/>
-      <c r="N67" s="309"/>
-      <c r="O67" s="311"/>
+        <v>209501</v>
+      </c>
+      <c r="M67" s="304"/>
+      <c r="N67" s="305"/>
+      <c r="O67" s="307"/>
       <c r="P67" s="4"/>
       <c r="Q67" s="4"/>
       <c r="R67" s="6">
         <f>SUM(R5:R66)</f>
-        <v>776540</v>
+        <v>1713249</v>
       </c>
       <c r="S67" s="6">
         <f>SUM(S5:S66)</f>
-        <v>-1278524</v>
+        <v>-5217274</v>
       </c>
       <c r="T67" s="193"/>
       <c r="W67" s="182"/>
@@ -7835,16 +8147,16 @@
       <c r="A69" s="91"/>
       <c r="B69" s="199"/>
       <c r="C69" s="3"/>
-      <c r="H69" s="312" t="s">
+      <c r="H69" s="308" t="s">
         <v>94</v>
       </c>
-      <c r="I69" s="313"/>
+      <c r="I69" s="309"/>
       <c r="J69" s="200"/>
-      <c r="K69" s="314">
+      <c r="K69" s="310">
         <f>I67+L67</f>
-        <v>139121</v>
-      </c>
-      <c r="L69" s="315"/>
+        <v>265679</v>
+      </c>
+      <c r="L69" s="311"/>
       <c r="M69" s="201"/>
       <c r="N69" s="202"/>
       <c r="O69" s="203"/>
@@ -7861,40 +8173,40 @@
       <c r="AG69" s="208"/>
     </row>
     <row r="70" spans="1:33" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D70" s="292" t="s">
+      <c r="D70" s="313" t="s">
         <v>95</v>
       </c>
-      <c r="E70" s="292"/>
+      <c r="E70" s="313"/>
       <c r="F70" s="209">
         <f>F67-K69-C67</f>
-        <v>1527215</v>
+        <v>3038627</v>
       </c>
       <c r="I70" s="210"/>
       <c r="J70" s="211"/>
-      <c r="R70" s="293">
+      <c r="R70" s="314">
         <f>R67+S67</f>
-        <v>-501984</v>
-      </c>
-      <c r="S70" s="294"/>
+        <v>-3504025</v>
+      </c>
+      <c r="S70" s="315"/>
       <c r="U70" s="70"/>
     </row>
     <row r="71" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D71" s="295" t="s">
+      <c r="D71" s="316" t="s">
         <v>96</v>
       </c>
-      <c r="E71" s="295"/>
+      <c r="E71" s="316"/>
       <c r="F71" s="212">
         <v>0</v>
       </c>
-      <c r="I71" s="296" t="s">
+      <c r="I71" s="317" t="s">
         <v>97</v>
       </c>
-      <c r="J71" s="297"/>
-      <c r="K71" s="298">
+      <c r="J71" s="318"/>
+      <c r="K71" s="319">
         <f>F73+F74+F75</f>
-        <v>1527215</v>
-      </c>
-      <c r="L71" s="299"/>
+        <v>3149918</v>
+      </c>
+      <c r="L71" s="320"/>
       <c r="R71" s="70"/>
       <c r="U71" s="213"/>
     </row>
@@ -7921,18 +8233,18 @@
       </c>
       <c r="F73" s="212">
         <f>SUM(F70:F72)</f>
-        <v>1527215</v>
+        <v>3038627</v>
       </c>
       <c r="H73" s="40"/>
       <c r="I73" s="220" t="s">
         <v>99</v>
       </c>
       <c r="J73" s="221"/>
-      <c r="K73" s="300">
+      <c r="K73" s="321">
         <f>-C4</f>
         <v>0</v>
       </c>
-      <c r="L73" s="301"/>
+      <c r="L73" s="322"/>
       <c r="R73" s="70"/>
       <c r="S73" s="6"/>
       <c r="U73" s="70"/>
@@ -7945,7 +8257,7 @@
         <v>101</v>
       </c>
       <c r="F74" s="223">
-        <v>0</v>
+        <v>111291</v>
       </c>
       <c r="R74" s="70"/>
       <c r="S74" s="6"/>
@@ -7953,22 +8265,22 @@
     </row>
     <row r="75" spans="1:33" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C75" s="224"/>
-      <c r="D75" s="278" t="s">
+      <c r="D75" s="323" t="s">
         <v>102</v>
       </c>
-      <c r="E75" s="279"/>
+      <c r="E75" s="324"/>
       <c r="F75" s="225">
         <v>0</v>
       </c>
-      <c r="I75" s="280" t="s">
+      <c r="I75" s="325" t="s">
         <v>103</v>
       </c>
-      <c r="J75" s="281"/>
-      <c r="K75" s="282">
+      <c r="J75" s="326"/>
+      <c r="K75" s="327">
         <f>K71+K73</f>
-        <v>1527215</v>
-      </c>
-      <c r="L75" s="282"/>
+        <v>3149918</v>
+      </c>
+      <c r="L75" s="327"/>
       <c r="R75" s="70"/>
       <c r="S75" s="6"/>
       <c r="U75" s="226"/>
@@ -7983,14 +8295,14 @@
       <c r="S76" s="6"/>
     </row>
     <row r="77" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I77" s="283" t="s">
+      <c r="I77" s="328" t="s">
         <v>104</v>
       </c>
-      <c r="J77" s="284"/>
-      <c r="K77" s="287">
-        <v>0</v>
-      </c>
-      <c r="L77" s="288"/>
+      <c r="J77" s="329"/>
+      <c r="K77" s="332">
+        <v>0</v>
+      </c>
+      <c r="L77" s="333"/>
       <c r="R77" s="6"/>
       <c r="S77" s="6"/>
     </row>
@@ -7999,10 +8311,10 @@
       <c r="C78" s="233"/>
       <c r="D78" s="234"/>
       <c r="E78" s="6"/>
-      <c r="I78" s="285"/>
-      <c r="J78" s="286"/>
-      <c r="K78" s="289"/>
-      <c r="L78" s="290"/>
+      <c r="I78" s="330"/>
+      <c r="J78" s="331"/>
+      <c r="K78" s="334"/>
+      <c r="L78" s="335"/>
       <c r="M78" s="1"/>
       <c r="N78" s="91"/>
       <c r="O78" s="14"/>
@@ -8054,7 +8366,7 @@
       <c r="C81" s="236"/>
       <c r="E81" s="6"/>
       <c r="M81" s="3"/>
-      <c r="AC81" s="291"/>
+      <c r="AC81" s="312"/>
       <c r="AD81" s="240"/>
       <c r="AE81" s="240"/>
       <c r="AF81" s="240"/>
@@ -8066,7 +8378,7 @@
       <c r="E82" s="6"/>
       <c r="F82" s="241"/>
       <c r="M82" s="3"/>
-      <c r="AC82" s="291"/>
+      <c r="AC82" s="312"/>
       <c r="AD82" s="240"/>
       <c r="AE82" s="240"/>
       <c r="AF82" s="240"/>
@@ -8161,6 +8473,11 @@
     <mergeCell ref="AG25:AG26"/>
     <mergeCell ref="AB29:AB30"/>
     <mergeCell ref="AC29:AC30"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="M39:M40"/>
+    <mergeCell ref="N39:N40"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="M58:M59"/>
     <mergeCell ref="AC81:AC82"/>
     <mergeCell ref="D70:E70"/>
     <mergeCell ref="R70:S70"/>
@@ -8168,7 +8485,6 @@
     <mergeCell ref="I71:J71"/>
     <mergeCell ref="K71:L71"/>
     <mergeCell ref="K73:L73"/>
-    <mergeCell ref="R3:R4"/>
     <mergeCell ref="D75:E75"/>
     <mergeCell ref="I75:J75"/>
     <mergeCell ref="K75:L75"/>
@@ -8180,10 +8496,6 @@
     <mergeCell ref="O66:O67"/>
     <mergeCell ref="H69:I69"/>
     <mergeCell ref="K69:L69"/>
-    <mergeCell ref="M39:M40"/>
-    <mergeCell ref="N39:N40"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="M58:M59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9589,20 +9901,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="340" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="342" t="s">
+      <c r="B1" s="362" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="364" t="s">
         <v>109</v>
       </c>
-      <c r="D1" s="342"/>
-      <c r="E1" s="342"/>
-      <c r="F1" s="342"/>
-      <c r="G1" s="342"/>
-      <c r="H1" s="342"/>
-      <c r="I1" s="342"/>
-      <c r="J1" s="342"/>
-      <c r="K1" s="342"/>
+      <c r="D1" s="364"/>
+      <c r="E1" s="364"/>
+      <c r="F1" s="364"/>
+      <c r="G1" s="364"/>
+      <c r="H1" s="364"/>
+      <c r="I1" s="364"/>
+      <c r="J1" s="364"/>
+      <c r="K1" s="364"/>
       <c r="L1" s="1"/>
       <c r="M1" s="2"/>
       <c r="W1" s="7"/>
@@ -9612,7 +9924,7 @@
       <c r="Y1" s="9"/>
     </row>
     <row r="2" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="341"/>
+      <c r="B2" s="363"/>
       <c r="C2" s="12"/>
       <c r="H2" s="14" t="s">
         <v>2</v>
@@ -9631,27 +9943,27 @@
       <c r="Y2" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="AB2" s="343" t="s">
+      <c r="AB2" s="365" t="s">
         <v>6</v>
       </c>
-      <c r="AC2" s="343"/>
-      <c r="AD2" s="343"/>
-      <c r="AE2" s="343"/>
-      <c r="AF2" s="343"/>
-      <c r="AG2" s="343"/>
+      <c r="AC2" s="365"/>
+      <c r="AD2" s="365"/>
+      <c r="AE2" s="365"/>
+      <c r="AF2" s="365"/>
+      <c r="AG2" s="365"/>
     </row>
     <row r="3" spans="1:33" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="344" t="s">
+      <c r="B3" s="366" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="345"/>
+      <c r="C3" s="367"/>
       <c r="D3" s="20"/>
       <c r="E3" s="21"/>
       <c r="F3" s="21"/>
-      <c r="H3" s="346" t="s">
+      <c r="H3" s="368" t="s">
         <v>110</v>
       </c>
-      <c r="I3" s="346"/>
+      <c r="I3" s="368"/>
       <c r="K3" s="23" t="s">
         <v>8</v>
       </c>
@@ -9659,13 +9971,13 @@
         <v>9</v>
       </c>
       <c r="M3" s="24"/>
-      <c r="P3" s="347" t="s">
+      <c r="P3" s="369" t="s">
         <v>10</v>
       </c>
-      <c r="Q3" s="348" t="s">
+      <c r="Q3" s="370" t="s">
         <v>11</v>
       </c>
-      <c r="S3" s="354" t="s">
+      <c r="S3" s="376" t="s">
         <v>12</v>
       </c>
       <c r="W3" s="25" t="s">
@@ -9677,12 +9989,12 @@
       <c r="Y3" s="27">
         <v>2000</v>
       </c>
-      <c r="AB3" s="343"/>
-      <c r="AC3" s="343"/>
-      <c r="AD3" s="343"/>
-      <c r="AE3" s="343"/>
-      <c r="AF3" s="343"/>
-      <c r="AG3" s="343"/>
+      <c r="AB3" s="365"/>
+      <c r="AC3" s="365"/>
+      <c r="AD3" s="365"/>
+      <c r="AE3" s="365"/>
+      <c r="AF3" s="365"/>
+      <c r="AG3" s="365"/>
     </row>
     <row r="4" spans="1:33" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="28" t="s">
@@ -9693,14 +10005,14 @@
         <v>0</v>
       </c>
       <c r="D4" s="31"/>
-      <c r="E4" s="350" t="s">
+      <c r="E4" s="372" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="351"/>
-      <c r="H4" s="352" t="s">
+      <c r="F4" s="373"/>
+      <c r="H4" s="374" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="353"/>
+      <c r="I4" s="375"/>
       <c r="J4" s="32"/>
       <c r="K4" s="33"/>
       <c r="L4" s="34"/>
@@ -9711,10 +10023,10 @@
         <v>18</v>
       </c>
       <c r="O4" s="37"/>
-      <c r="P4" s="347"/>
-      <c r="Q4" s="348"/>
+      <c r="P4" s="369"/>
+      <c r="Q4" s="370"/>
       <c r="R4" s="38"/>
-      <c r="S4" s="354"/>
+      <c r="S4" s="376"/>
       <c r="T4" s="38"/>
       <c r="U4" s="38"/>
       <c r="W4" s="25" t="s">
@@ -9726,16 +10038,16 @@
       <c r="Y4" s="39">
         <v>2000</v>
       </c>
-      <c r="AB4" s="325" t="s">
+      <c r="AB4" s="338" t="s">
         <v>20</v>
       </c>
-      <c r="AC4" s="326"/>
+      <c r="AC4" s="339"/>
       <c r="AD4" s="37"/>
-      <c r="AE4" s="327" t="s">
+      <c r="AE4" s="340" t="s">
         <v>21</v>
       </c>
-      <c r="AF4" s="327"/>
-      <c r="AG4" s="327"/>
+      <c r="AF4" s="340"/>
+      <c r="AG4" s="340"/>
     </row>
     <row r="5" spans="1:33" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="40" t="s">
@@ -10971,10 +11283,10 @@
         <v>0</v>
       </c>
       <c r="AD23" s="37"/>
-      <c r="AE23" s="328" t="s">
+      <c r="AE23" s="341" t="s">
         <v>45</v>
       </c>
-      <c r="AF23" s="329"/>
+      <c r="AF23" s="342"/>
       <c r="AG23" s="98">
         <f>SUM(AG6:AG22)</f>
         <v>2323600</v>
@@ -11092,11 +11404,11 @@
         <v>138607</v>
       </c>
       <c r="AD25" s="37"/>
-      <c r="AE25" s="330" t="s">
+      <c r="AE25" s="343" t="s">
         <v>48</v>
       </c>
-      <c r="AF25" s="331"/>
-      <c r="AG25" s="334">
+      <c r="AF25" s="344"/>
+      <c r="AG25" s="347">
         <f>AC29-AG23</f>
         <v>163726</v>
       </c>
@@ -11157,9 +11469,9 @@
         <v>107480</v>
       </c>
       <c r="AD26" s="37"/>
-      <c r="AE26" s="332"/>
-      <c r="AF26" s="333"/>
-      <c r="AG26" s="335"/>
+      <c r="AE26" s="345"/>
+      <c r="AF26" s="346"/>
+      <c r="AG26" s="348"/>
     </row>
     <row r="27" spans="1:33" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="40"/>
@@ -11322,10 +11634,10 @@
       </c>
       <c r="X29" s="52"/>
       <c r="Y29" s="53"/>
-      <c r="AB29" s="336" t="s">
+      <c r="AB29" s="349" t="s">
         <v>53</v>
       </c>
-      <c r="AC29" s="338">
+      <c r="AC29" s="351">
         <f>SUM(AC5:AC28)</f>
         <v>2487326</v>
       </c>
@@ -11379,8 +11691,8 @@
       </c>
       <c r="X30" s="117"/>
       <c r="Y30" s="118"/>
-      <c r="AB30" s="337"/>
-      <c r="AC30" s="339"/>
+      <c r="AB30" s="350"/>
+      <c r="AC30" s="352"/>
       <c r="AD30" s="37"/>
       <c r="AE30" s="37"/>
       <c r="AF30" s="37"/>
@@ -11792,11 +12104,11 @@
       <c r="J39" s="66"/>
       <c r="K39" s="141"/>
       <c r="L39" s="60"/>
-      <c r="M39" s="316">
+      <c r="M39" s="355">
         <f>SUM(M5:M38)</f>
         <v>0</v>
       </c>
-      <c r="N39" s="318">
+      <c r="N39" s="357">
         <f>SUM(N5:N38)</f>
         <v>0</v>
       </c>
@@ -11834,8 +12146,8 @@
       <c r="J40" s="66"/>
       <c r="K40" s="105"/>
       <c r="L40" s="60"/>
-      <c r="M40" s="317"/>
-      <c r="N40" s="319"/>
+      <c r="M40" s="356"/>
+      <c r="N40" s="358"/>
       <c r="O40" s="125"/>
       <c r="P40" s="6"/>
       <c r="Q40" s="6"/>
@@ -11975,10 +12287,10 @@
       <c r="J44" s="66"/>
       <c r="K44" s="148"/>
       <c r="L44" s="131"/>
-      <c r="M44" s="320" t="s">
+      <c r="M44" s="359" t="s">
         <v>21</v>
       </c>
-      <c r="N44" s="320"/>
+      <c r="N44" s="359"/>
       <c r="O44" s="125"/>
       <c r="P44" s="6"/>
       <c r="Q44" s="6"/>
@@ -12428,7 +12740,7 @@
       <c r="J58" s="170"/>
       <c r="K58" s="173"/>
       <c r="L58" s="70"/>
-      <c r="M58" s="321">
+      <c r="M58" s="360">
         <f t="shared" ref="M58" si="2">SUM(M45:M57)</f>
         <v>0</v>
       </c>
@@ -12461,7 +12773,7 @@
       <c r="J59" s="170"/>
       <c r="K59" s="135"/>
       <c r="L59" s="70"/>
-      <c r="M59" s="322"/>
+      <c r="M59" s="361"/>
       <c r="N59" s="132"/>
       <c r="O59" s="125"/>
       <c r="P59" s="6"/>
@@ -12491,10 +12803,10 @@
       <c r="J60" s="170"/>
       <c r="K60" s="173"/>
       <c r="L60" s="70"/>
-      <c r="M60" s="323" t="s">
+      <c r="M60" s="336" t="s">
         <v>87</v>
       </c>
-      <c r="N60" s="324"/>
+      <c r="N60" s="337"/>
       <c r="O60" s="125"/>
       <c r="P60" s="6"/>
       <c r="Q60" s="6"/>
@@ -12553,10 +12865,10 @@
       <c r="J62" s="176"/>
       <c r="K62" s="177"/>
       <c r="L62" s="178"/>
-      <c r="M62" s="287">
-        <v>0</v>
-      </c>
-      <c r="N62" s="288"/>
+      <c r="M62" s="332">
+        <v>0</v>
+      </c>
+      <c r="N62" s="333"/>
       <c r="O62" s="125"/>
       <c r="P62" s="6"/>
       <c r="Q62" s="6"/>
@@ -12587,8 +12899,8 @@
       <c r="L63" s="70" t="s">
         <v>88</v>
       </c>
-      <c r="M63" s="289"/>
-      <c r="N63" s="290"/>
+      <c r="M63" s="334"/>
+      <c r="N63" s="335"/>
       <c r="O63" s="125"/>
       <c r="P63" s="6"/>
       <c r="Q63" s="6"/>
@@ -12619,10 +12931,10 @@
       <c r="L64" s="179" t="s">
         <v>89</v>
       </c>
-      <c r="M64" s="302">
-        <v>0</v>
-      </c>
-      <c r="N64" s="303"/>
+      <c r="M64" s="298">
+        <v>0</v>
+      </c>
+      <c r="N64" s="299"/>
       <c r="O64" s="125"/>
       <c r="P64" s="6"/>
       <c r="Q64" s="6"/>
@@ -12653,10 +12965,10 @@
       <c r="L65" s="179" t="s">
         <v>90</v>
       </c>
-      <c r="M65" s="304">
-        <v>0</v>
-      </c>
-      <c r="N65" s="305"/>
+      <c r="M65" s="300">
+        <v>0</v>
+      </c>
+      <c r="N65" s="301"/>
       <c r="O65" s="125"/>
       <c r="P65" s="6"/>
       <c r="Q65" s="6"/>
@@ -12687,12 +12999,12 @@
       <c r="J66" s="176"/>
       <c r="K66" s="173"/>
       <c r="L66" s="5"/>
-      <c r="M66" s="306">
+      <c r="M66" s="302">
         <f>SUM(M65+M64+M62)</f>
         <v>0</v>
       </c>
-      <c r="N66" s="307"/>
-      <c r="O66" s="310"/>
+      <c r="N66" s="303"/>
+      <c r="O66" s="306"/>
       <c r="P66" s="6"/>
       <c r="Q66" s="6"/>
       <c r="R66" s="181">
@@ -12744,9 +13056,9 @@
         <f>SUM(L5:L66)</f>
         <v>0</v>
       </c>
-      <c r="M67" s="308"/>
-      <c r="N67" s="309"/>
-      <c r="O67" s="311"/>
+      <c r="M67" s="304"/>
+      <c r="N67" s="305"/>
+      <c r="O67" s="307"/>
       <c r="P67" s="4"/>
       <c r="Q67" s="4"/>
       <c r="R67" s="6">
@@ -12778,16 +13090,16 @@
       <c r="A69" s="91"/>
       <c r="B69" s="199"/>
       <c r="C69" s="3"/>
-      <c r="H69" s="312" t="s">
+      <c r="H69" s="308" t="s">
         <v>94</v>
       </c>
-      <c r="I69" s="313"/>
+      <c r="I69" s="309"/>
       <c r="J69" s="200"/>
-      <c r="K69" s="314">
+      <c r="K69" s="310">
         <f>I67+L67</f>
         <v>0</v>
       </c>
-      <c r="L69" s="315"/>
+      <c r="L69" s="311"/>
       <c r="M69" s="201"/>
       <c r="N69" s="202"/>
       <c r="O69" s="203"/>
@@ -12804,40 +13116,40 @@
       <c r="AG69" s="208"/>
     </row>
     <row r="70" spans="1:33" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D70" s="292" t="s">
+      <c r="D70" s="313" t="s">
         <v>95</v>
       </c>
-      <c r="E70" s="292"/>
+      <c r="E70" s="313"/>
       <c r="F70" s="209">
         <f>F67-K69-C67</f>
         <v>0</v>
       </c>
       <c r="I70" s="210"/>
       <c r="J70" s="211"/>
-      <c r="R70" s="293">
+      <c r="R70" s="314">
         <f>R67+S67</f>
         <v>0</v>
       </c>
-      <c r="S70" s="294"/>
+      <c r="S70" s="315"/>
       <c r="U70" s="70"/>
     </row>
     <row r="71" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D71" s="295" t="s">
+      <c r="D71" s="316" t="s">
         <v>96</v>
       </c>
-      <c r="E71" s="295"/>
+      <c r="E71" s="316"/>
       <c r="F71" s="212">
         <v>0</v>
       </c>
-      <c r="I71" s="296" t="s">
+      <c r="I71" s="317" t="s">
         <v>97</v>
       </c>
-      <c r="J71" s="297"/>
-      <c r="K71" s="298">
+      <c r="J71" s="318"/>
+      <c r="K71" s="319">
         <f>F73+F74+F75</f>
         <v>0</v>
       </c>
-      <c r="L71" s="299"/>
+      <c r="L71" s="320"/>
       <c r="R71" s="70"/>
       <c r="U71" s="213"/>
     </row>
@@ -12871,11 +13183,11 @@
         <v>99</v>
       </c>
       <c r="J73" s="221"/>
-      <c r="K73" s="300">
+      <c r="K73" s="321">
         <f>-C4</f>
         <v>0</v>
       </c>
-      <c r="L73" s="301"/>
+      <c r="L73" s="322"/>
       <c r="R73" s="70"/>
       <c r="S73" s="6"/>
       <c r="U73" s="70"/>
@@ -12896,22 +13208,22 @@
     </row>
     <row r="75" spans="1:33" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C75" s="224"/>
-      <c r="D75" s="278" t="s">
+      <c r="D75" s="323" t="s">
         <v>102</v>
       </c>
-      <c r="E75" s="279"/>
+      <c r="E75" s="324"/>
       <c r="F75" s="225">
         <v>0</v>
       </c>
-      <c r="I75" s="280" t="s">
+      <c r="I75" s="325" t="s">
         <v>103</v>
       </c>
-      <c r="J75" s="281"/>
-      <c r="K75" s="282">
+      <c r="J75" s="326"/>
+      <c r="K75" s="327">
         <f>K71+K73</f>
         <v>0</v>
       </c>
-      <c r="L75" s="282"/>
+      <c r="L75" s="327"/>
       <c r="R75" s="70"/>
       <c r="S75" s="6"/>
       <c r="U75" s="226"/>
@@ -12926,14 +13238,14 @@
       <c r="S76" s="6"/>
     </row>
     <row r="77" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I77" s="283" t="s">
+      <c r="I77" s="328" t="s">
         <v>104</v>
       </c>
-      <c r="J77" s="284"/>
-      <c r="K77" s="287">
-        <v>0</v>
-      </c>
-      <c r="L77" s="288"/>
+      <c r="J77" s="329"/>
+      <c r="K77" s="332">
+        <v>0</v>
+      </c>
+      <c r="L77" s="333"/>
       <c r="R77" s="6"/>
       <c r="S77" s="6"/>
     </row>
@@ -12942,10 +13254,10 @@
       <c r="C78" s="233"/>
       <c r="D78" s="234"/>
       <c r="E78" s="6"/>
-      <c r="I78" s="285"/>
-      <c r="J78" s="286"/>
-      <c r="K78" s="289"/>
-      <c r="L78" s="290"/>
+      <c r="I78" s="330"/>
+      <c r="J78" s="331"/>
+      <c r="K78" s="334"/>
+      <c r="L78" s="335"/>
       <c r="M78" s="1"/>
       <c r="N78" s="91"/>
       <c r="O78" s="14"/>
@@ -12997,7 +13309,7 @@
       <c r="C81" s="236"/>
       <c r="E81" s="6"/>
       <c r="M81" s="3"/>
-      <c r="AC81" s="291"/>
+      <c r="AC81" s="312"/>
       <c r="AD81" s="240"/>
       <c r="AE81" s="240"/>
       <c r="AF81" s="240"/>
@@ -13009,7 +13321,7 @@
       <c r="E82" s="6"/>
       <c r="F82" s="241"/>
       <c r="M82" s="3"/>
-      <c r="AC82" s="291"/>
+      <c r="AC82" s="312"/>
       <c r="AD82" s="240"/>
       <c r="AE82" s="240"/>
       <c r="AF82" s="240"/>
